--- a/app/Licenciatura_em_Estatistica.xlsx
+++ b/app/Licenciatura_em_Estatistica.xlsx
@@ -15,34 +15,32 @@
     <sheet name="20152213" sheetId="5" r:id="rId8"/>
     <sheet name="20152197" sheetId="6" r:id="rId9"/>
     <sheet name="20152214" sheetId="7" r:id="rId10"/>
-    <sheet name="20154444" sheetId="8" r:id="rId11"/>
-    <sheet name="20152208" sheetId="9" r:id="rId12"/>
-    <sheet name="20152195" sheetId="10" r:id="rId13"/>
-    <sheet name="20152215" sheetId="11" r:id="rId14"/>
-    <sheet name="20152209" sheetId="12" r:id="rId15"/>
-    <sheet name="20152200" sheetId="13" r:id="rId16"/>
-    <sheet name="20152219" sheetId="14" r:id="rId17"/>
-    <sheet name="20152205" sheetId="15" r:id="rId18"/>
-    <sheet name="20152217" sheetId="16" r:id="rId19"/>
-    <sheet name="20152224" sheetId="17" r:id="rId20"/>
-    <sheet name="20152201" sheetId="18" r:id="rId21"/>
-    <sheet name="20152199" sheetId="19" r:id="rId22"/>
-    <sheet name="20152207" sheetId="20" r:id="rId23"/>
-    <sheet name="20152206" sheetId="21" r:id="rId24"/>
-    <sheet name="20152220" sheetId="22" r:id="rId25"/>
-    <sheet name="20152211" sheetId="23" r:id="rId26"/>
-    <sheet name="20152196" sheetId="24" r:id="rId27"/>
-    <sheet name="20152222" sheetId="25" r:id="rId28"/>
-    <sheet name="20152216" sheetId="26" r:id="rId29"/>
-    <sheet name="20152202" sheetId="27" r:id="rId30"/>
-    <sheet name="20152198" sheetId="28" r:id="rId31"/>
-    <sheet name="20154443" sheetId="29" r:id="rId32"/>
-    <sheet name="20152210" sheetId="30" r:id="rId33"/>
-    <sheet name="20152212" sheetId="31" r:id="rId34"/>
-    <sheet name="20152203" sheetId="32" r:id="rId35"/>
-    <sheet name="20152204" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId38"/>
+    <sheet name="20152208" sheetId="8" r:id="rId11"/>
+    <sheet name="20152195" sheetId="9" r:id="rId12"/>
+    <sheet name="20152215" sheetId="10" r:id="rId13"/>
+    <sheet name="20152209" sheetId="11" r:id="rId14"/>
+    <sheet name="20152200" sheetId="12" r:id="rId15"/>
+    <sheet name="20152219" sheetId="13" r:id="rId16"/>
+    <sheet name="20152205" sheetId="14" r:id="rId17"/>
+    <sheet name="20152217" sheetId="15" r:id="rId18"/>
+    <sheet name="20152224" sheetId="16" r:id="rId19"/>
+    <sheet name="20152201" sheetId="17" r:id="rId20"/>
+    <sheet name="20152199" sheetId="18" r:id="rId21"/>
+    <sheet name="20152207" sheetId="19" r:id="rId22"/>
+    <sheet name="20152206" sheetId="20" r:id="rId23"/>
+    <sheet name="20152220" sheetId="21" r:id="rId24"/>
+    <sheet name="20152211" sheetId="22" r:id="rId25"/>
+    <sheet name="20152196" sheetId="23" r:id="rId26"/>
+    <sheet name="20152222" sheetId="24" r:id="rId27"/>
+    <sheet name="20152216" sheetId="25" r:id="rId28"/>
+    <sheet name="20152202" sheetId="26" r:id="rId29"/>
+    <sheet name="20152198" sheetId="27" r:id="rId30"/>
+    <sheet name="20152210" sheetId="28" r:id="rId31"/>
+    <sheet name="20152212" sheetId="29" r:id="rId32"/>
+    <sheet name="20152203" sheetId="30" r:id="rId33"/>
+    <sheet name="20152204" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -199,9 +197,6 @@
     <t>Raulina Janela Vilanculo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -238,9 +233,6 @@
     <t>Gertrudes Julio Tembe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>BI</t>
   </si>
   <si>
@@ -265,9 +257,6 @@
     <t>Albertina Feliza Tembe</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -295,9 +284,6 @@
     <t xml:space="preserve">MÓnica Da GraÇa InÁcio </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110400542003A</t>
   </si>
   <si>
@@ -346,9 +332,6 @@
     <t>Luisa Caidote</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060702471276Q</t>
   </si>
   <si>
@@ -358,15 +341,6 @@
     <t>Escola Secundaria de Jecua</t>
   </si>
   <si>
-    <t>Ratibo</t>
-  </si>
-  <si>
-    <t>Ismael Mendes Sitoe</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Nwendzane</t>
   </si>
   <si>
@@ -511,9 +485,6 @@
     <t>Hortencia Mabunda</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100723244A</t>
   </si>
   <si>
@@ -625,9 +596,6 @@
     <t>Elisa Iassine</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>010100189926N</t>
   </si>
   <si>
@@ -697,9 +665,6 @@
     <t>Relva Ernesto Carimo</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040101262198M</t>
   </si>
   <si>
@@ -748,9 +713,6 @@
     <t>Almerinda Jose Nuvunga</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090201382878Q</t>
   </si>
   <si>
@@ -796,9 +758,6 @@
     <t>Delfina Orlando Cumaio</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110200359812P</t>
   </si>
   <si>
@@ -827,12 +786,6 @@
   </si>
   <si>
     <t>+258824171036</t>
-  </si>
-  <si>
-    <t>Cavele</t>
-  </si>
-  <si>
-    <t>Alvaro Alfredo</t>
   </si>
   <si>
     <t>Barros</t>
@@ -2152,7 +2105,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152195</v>
+        <v>20152215</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2176,7 +2129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2192,7 +2145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2208,7 +2161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2224,7 +2177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2240,7 +2193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2255,9 +2208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2265,7 +2216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2276,7 +2227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2285,7 +2236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2297,7 +2248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2305,7 +2256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2401,7 +2352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2428,7 +2379,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2444,7 +2395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2747,7 +2698,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152215</v>
+        <v>20152209</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2850,9 +2801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2860,7 +2809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2871,7 +2820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2880,7 +2829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2892,15 +2841,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>124</v>
+      <c r="H17" s="20">
+        <v>70101461249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2996,7 +2945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3023,7 +2972,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3039,7 +2988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3342,7 +3291,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152209</v>
+        <v>20152200</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3366,7 +3315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3382,7 +3331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3398,7 +3347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3414,7 +3363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3430,7 +3379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3445,9 +3394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3455,7 +3402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3466,7 +3413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3475,7 +3422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3487,15 +3434,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>70101461249</v>
+      <c r="H17" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3591,7 +3538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3634,7 +3581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3937,7 +3884,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152200</v>
+        <v>20152219</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3961,7 +3908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3977,7 +3924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3993,7 +3940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4009,7 +3956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4040,9 +3987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4050,7 +3995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4061,7 +4006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4070,7 +4015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4082,7 +4027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4213,7 +4158,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4229,7 +4174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4532,7 +4477,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152219</v>
+        <v>20152205</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4556,7 +4501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4572,7 +4517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4588,7 +4533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4604,7 +4549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4620,7 +4565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4635,9 +4580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4645,7 +4588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4656,7 +4599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4665,7 +4608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4677,7 +4620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4685,7 +4628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4781,7 +4724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4808,7 +4751,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4824,7 +4767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5127,7 +5070,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152205</v>
+        <v>20152217</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5151,7 +5094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5167,7 +5110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5183,7 +5126,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5199,7 +5142,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5215,7 +5158,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5230,9 +5173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5240,7 +5181,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5251,7 +5192,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5260,7 +5201,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5272,7 +5213,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5280,7 +5221,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5376,7 +5317,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5419,7 +5360,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5722,7 +5663,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152217</v>
+        <v>20152224</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5746,7 +5687,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5762,7 +5703,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5778,7 +5719,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5794,7 +5735,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5810,7 +5751,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5825,9 +5766,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5835,7 +5774,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5846,7 +5785,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5855,7 +5794,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5867,7 +5806,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5875,7 +5814,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5971,7 +5910,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5998,7 +5937,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6014,7 +5953,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6317,7 +6256,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152224</v>
+        <v>20152201</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6341,7 +6280,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6357,7 +6296,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6373,7 +6312,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6389,7 +6328,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6405,7 +6344,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6420,9 +6359,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6430,7 +6367,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6441,7 +6378,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6450,7 +6387,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6462,7 +6399,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6470,7 +6407,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6566,7 +6503,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6593,7 +6530,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6609,7 +6546,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6912,7 +6849,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152201</v>
+        <v>20152199</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6936,7 +6873,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6952,7 +6889,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6968,7 +6905,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6984,7 +6921,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7000,7 +6937,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7015,9 +6952,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7025,7 +6960,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7036,7 +6971,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7045,7 +6980,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7057,7 +6992,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7065,7 +7000,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7161,7 +7096,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7188,7 +7123,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7204,7 +7139,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7507,7 +7442,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152199</v>
+        <v>20152207</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7531,7 +7466,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7547,7 +7482,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7563,7 +7498,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7579,7 +7514,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7595,7 +7530,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7610,9 +7545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7620,7 +7553,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7631,7 +7564,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7640,7 +7573,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7652,7 +7585,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7660,7 +7593,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7756,7 +7689,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7783,7 +7716,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7799,7 +7732,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8205,9 +8138,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8215,7 +8146,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8226,7 +8157,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8235,7 +8166,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8247,7 +8178,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8255,7 +8186,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8351,7 +8282,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8394,7 +8325,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8697,7 +8628,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152207</v>
+        <v>20152206</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8721,7 +8652,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8737,7 +8668,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8753,7 +8684,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8769,7 +8700,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8785,7 +8716,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8800,9 +8731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8810,7 +8739,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8821,7 +8750,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8830,7 +8759,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8842,7 +8771,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8850,7 +8779,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8946,7 +8875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8973,7 +8902,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8989,7 +8918,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9292,7 +9221,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152206</v>
+        <v>20152220</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9316,7 +9245,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9332,7 +9261,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9348,7 +9277,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9364,7 +9293,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9380,7 +9309,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9395,9 +9324,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9405,7 +9332,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9416,7 +9343,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9425,7 +9352,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9437,7 +9364,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9445,7 +9372,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9541,7 +9468,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9568,7 +9495,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9584,7 +9511,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9887,7 +9814,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152220</v>
+        <v>20152211</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9911,7 +9838,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9927,7 +9854,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9943,7 +9870,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9959,7 +9886,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9975,7 +9902,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9990,9 +9917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10000,7 +9925,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10011,7 +9936,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10020,7 +9945,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10032,7 +9957,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10040,7 +9965,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10136,7 +10061,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10163,7 +10088,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10179,7 +10104,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10482,7 +10407,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152211</v>
+        <v>20152196</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10506,7 +10431,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10522,7 +10447,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10538,7 +10463,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10554,7 +10479,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10570,7 +10495,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10585,9 +10510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10595,7 +10518,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10606,7 +10529,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10615,7 +10538,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10627,7 +10550,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10635,7 +10558,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10731,7 +10654,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10774,7 +10697,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11077,7 +11000,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152196</v>
+        <v>20152222</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11101,7 +11024,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11117,7 +11040,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11133,7 +11056,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11149,7 +11072,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11165,7 +11088,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11180,9 +11103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11190,7 +11111,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11201,7 +11122,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11210,7 +11131,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11222,7 +11143,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11230,7 +11151,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11326,7 +11247,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11353,7 +11274,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11369,7 +11290,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11672,7 +11593,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152222</v>
+        <v>20152216</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11696,7 +11617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11712,7 +11633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11728,7 +11649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11744,7 +11665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11760,7 +11681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11775,9 +11696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>232</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11785,7 +11704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11796,7 +11715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11805,7 +11724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11817,7 +11736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11825,7 +11744,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11921,7 +11840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11948,7 +11867,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11964,7 +11883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12267,7 +12186,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152216</v>
+        <v>20152202</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12291,7 +12210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12307,7 +12226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12323,7 +12242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12339,7 +12258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12355,7 +12274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12370,9 +12289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12380,7 +12297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12391,7 +12308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12400,7 +12317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12412,7 +12329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12420,7 +12337,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12516,7 +12433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12543,7 +12460,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12559,7 +12476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12862,7 +12779,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152202</v>
+        <v>20152198</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12886,7 +12803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12902,7 +12819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12918,7 +12835,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12934,7 +12851,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12950,7 +12867,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12965,9 +12882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>248</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12975,7 +12890,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12986,7 +12901,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12995,7 +12910,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13007,7 +12922,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13015,7 +12930,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13111,7 +13026,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13138,7 +13053,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13154,7 +13069,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13457,7 +13372,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152198</v>
+        <v>20152210</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13481,7 +13396,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13497,7 +13412,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13513,7 +13428,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13529,7 +13444,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13545,7 +13460,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13560,9 +13475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13570,7 +13483,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13581,7 +13494,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13590,7 +13503,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13602,7 +13515,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13610,7 +13523,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13706,7 +13619,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13733,7 +13646,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13749,7 +13662,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14000,7 +13913,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -14050,7 +13965,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154443</v>
+        <v>20152212</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14074,7 +13989,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14090,7 +14005,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14105,7 +14020,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14119,7 +14036,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>256</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14133,7 +14052,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14154,7 +14075,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14163,14 +14086,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14180,13 +14107,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14281,7 +14212,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14307,7 +14238,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14321,7 +14254,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14647,7 +14582,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14663,7 +14598,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14679,7 +14614,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14695,7 +14630,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14711,7 +14646,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14726,9 +14661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14736,7 +14669,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14747,7 +14680,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14756,7 +14689,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14768,7 +14701,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14776,7 +14709,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14872,7 +14805,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14915,7 +14848,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15218,7 +15151,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152210</v>
+        <v>20152203</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15242,7 +15175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15258,7 +15191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15274,7 +15207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15290,7 +15223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15306,7 +15239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15321,9 +15254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15331,7 +15262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15342,7 +15273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15351,7 +15282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15363,7 +15294,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15371,7 +15302,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15467,7 +15398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15510,7 +15441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15813,7 +15744,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152212</v>
+        <v>20152204</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15837,7 +15768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15853,7 +15784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15869,7 +15800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15885,7 +15816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15901,7 +15832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15916,9 +15847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15926,7 +15855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15937,7 +15866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15946,7 +15875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15958,7 +15887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15966,7 +15895,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16062,7 +15991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16089,7 +16018,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16105,7 +16034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16308,1196 +16237,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152203</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152204</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -17521,7 +16260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17678,7 +16417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17694,7 +16433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17710,7 +16449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17726,7 +16465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17742,7 +16481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17757,9 +16496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17767,7 +16504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17778,7 +16515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17787,7 +16524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17799,7 +16536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17807,7 +16544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17903,7 +16640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17946,7 +16683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18273,7 +17010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18289,7 +17026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18305,7 +17042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18321,7 +17058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18337,7 +17074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18352,9 +17089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18362,7 +17097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18373,7 +17108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18382,7 +17117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18394,7 +17129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18402,7 +17137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18498,7 +17233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18541,7 +17276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18868,7 +17603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18884,7 +17619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18900,7 +17635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18916,7 +17651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18932,7 +17667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18947,9 +17682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18957,7 +17690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18968,7 +17701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18977,7 +17710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18989,7 +17722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18997,7 +17730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19093,7 +17826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19136,7 +17869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19463,7 +18196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19479,7 +18212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19495,7 +18228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19511,7 +18244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19527,7 +18260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19542,9 +18275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19552,7 +18283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19563,7 +18294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19572,7 +18303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19584,7 +18315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19592,7 +18323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19688,7 +18419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19731,7 +18462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19982,7 +18713,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20032,7 +18765,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154444</v>
+        <v>20152208</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20056,7 +18789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20072,7 +18805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20087,7 +18820,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20101,7 +18836,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20115,7 +18852,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20136,7 +18875,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20145,14 +18886,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20162,13 +18907,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20263,7 +19012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20289,7 +19038,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20303,7 +19054,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20605,7 +19358,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152208</v>
+        <v>20152195</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20629,7 +19382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20645,7 +19398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20661,7 +19414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20677,7 +19430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20693,7 +19446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20708,9 +19461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20718,7 +19469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20729,7 +19480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20738,7 +19489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20750,7 +19501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20758,7 +19509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20854,7 +19605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20897,7 +19648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
